--- a/migration/backend/storage/sheets/common/7b843c49-bfe7-11f0-ad7f-40c2baaf5526/2025-Odd-Sem-Sem-5.xlsx
+++ b/migration/backend/storage/sheets/common/7b843c49-bfe7-11f0-ad7f-40c2baaf5526/2025-Odd-Sem-Sem-5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="ProcessedData" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,6 +469,9 @@
       <c r="V1" t="str">
         <v>2 Marks</v>
       </c>
+      <c r="W1" t="str">
+        <v>Total</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -517,10 +520,10 @@
         <v/>
       </c>
       <c r="P2" t="str">
-        <v>2403617614921002</v>
+        <v>2403617614921017</v>
       </c>
       <c r="Q2" t="str">
-        <v>240361761492002</v>
+        <v>240361761492017</v>
       </c>
       <c r="R2" t="str">
         <v>322CIT05</v>
@@ -529,13 +532,16 @@
         <v>26</v>
       </c>
       <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U2">
+        <v>123001</v>
       </c>
       <c r="V2" t="str">
         <v/>
+      </c>
+      <c r="W2">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -585,10 +591,10 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <v>2403617614921003</v>
+        <v>2403617614921018</v>
       </c>
       <c r="Q3" t="str">
-        <v>240361761492003</v>
+        <v>240361761492018</v>
       </c>
       <c r="R3" t="str">
         <v>322CIT05</v>
@@ -597,13 +603,16 @@
         <v>27</v>
       </c>
       <c r="T3" t="str">
-        <v/>
-      </c>
-      <c r="U3" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U3">
+        <v>123002</v>
       </c>
       <c r="V3" t="str">
         <v/>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -653,10 +662,10 @@
         <v/>
       </c>
       <c r="P4" t="str">
-        <v>2403617614921004</v>
+        <v>2403617614921019</v>
       </c>
       <c r="Q4" t="str">
-        <v>240361761492004</v>
+        <v>240361761492019</v>
       </c>
       <c r="R4" t="str">
         <v>322CIT05</v>
@@ -665,13 +674,16 @@
         <v>28</v>
       </c>
       <c r="T4" t="str">
-        <v/>
-      </c>
-      <c r="U4" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U4">
+        <v>123003</v>
       </c>
       <c r="V4" t="str">
         <v/>
+      </c>
+      <c r="W4">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -721,10 +733,10 @@
         <v/>
       </c>
       <c r="P5" t="str">
-        <v>2403617614921005</v>
+        <v>2403617614921020</v>
       </c>
       <c r="Q5" t="str">
-        <v>240361761492005</v>
+        <v>240361761492020</v>
       </c>
       <c r="R5" t="str">
         <v>322CIT05</v>
@@ -733,13 +745,16 @@
         <v>29</v>
       </c>
       <c r="T5" t="str">
-        <v/>
-      </c>
-      <c r="U5" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U5">
+        <v>123004</v>
       </c>
       <c r="V5" t="str">
         <v/>
+      </c>
+      <c r="W5">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -789,10 +804,10 @@
         <v/>
       </c>
       <c r="P6" t="str">
-        <v>2403617614921006</v>
+        <v>2403617614921021</v>
       </c>
       <c r="Q6" t="str">
-        <v>240361761492006</v>
+        <v>240361761492021</v>
       </c>
       <c r="R6" t="str">
         <v>322CIT05</v>
@@ -801,13 +816,16 @@
         <v>30</v>
       </c>
       <c r="T6" t="str">
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U6">
+        <v>123005</v>
       </c>
       <c r="V6" t="str">
         <v/>
+      </c>
+      <c r="W6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -869,13 +887,16 @@
         <v>31</v>
       </c>
       <c r="T7" t="str">
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U7">
+        <v>123006</v>
       </c>
       <c r="V7" t="str">
         <v/>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -937,13 +958,16 @@
         <v>32</v>
       </c>
       <c r="T8" t="str">
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U8">
+        <v>123007</v>
       </c>
       <c r="V8" t="str">
         <v/>
+      </c>
+      <c r="W8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1005,13 +1029,16 @@
         <v>33</v>
       </c>
       <c r="T9" t="str">
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U9">
+        <v>123008</v>
       </c>
       <c r="V9" t="str">
         <v/>
+      </c>
+      <c r="W9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1073,13 +1100,16 @@
         <v>34</v>
       </c>
       <c r="T10" t="str">
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U10">
+        <v>123009</v>
       </c>
       <c r="V10" t="str">
         <v/>
+      </c>
+      <c r="W10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1141,13 +1171,16 @@
         <v>20</v>
       </c>
       <c r="T11" t="str">
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U11">
+        <v>123010</v>
       </c>
       <c r="V11" t="str">
         <v/>
+      </c>
+      <c r="W11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1197,25 +1230,28 @@
         <v/>
       </c>
       <c r="P12" t="str">
-        <v>2403617614921012</v>
+        <v>2403617614921022</v>
       </c>
       <c r="Q12" t="str">
-        <v>240361761492012</v>
+        <v>240361761492022</v>
       </c>
       <c r="R12" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S12">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="T12" t="str">
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U12">
+        <v>123011</v>
       </c>
       <c r="V12" t="str">
         <v/>
+      </c>
+      <c r="W12">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1265,25 +1301,28 @@
         <v/>
       </c>
       <c r="P13" t="str">
-        <v>2403617614921013</v>
+        <v>2403617614921023</v>
       </c>
       <c r="Q13" t="str">
-        <v>240361761492013</v>
+        <v>240361761492023</v>
       </c>
       <c r="R13" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S13">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="T13" t="str">
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U13">
+        <v>123012</v>
       </c>
       <c r="V13" t="str">
         <v/>
+      </c>
+      <c r="W13">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1333,25 +1372,28 @@
         <v/>
       </c>
       <c r="P14" t="str">
-        <v>2403617614921014</v>
+        <v>2403617614921024</v>
       </c>
       <c r="Q14" t="str">
-        <v>240361761492014</v>
+        <v>240361761492024</v>
       </c>
       <c r="R14" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S14">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="T14" t="str">
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U14">
+        <v>123013</v>
       </c>
       <c r="V14" t="str">
         <v/>
+      </c>
+      <c r="W14">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1401,25 +1443,28 @@
         <v/>
       </c>
       <c r="P15" t="str">
-        <v>2403617614921015</v>
+        <v>2403617614921025</v>
       </c>
       <c r="Q15" t="str">
-        <v>240361761492015</v>
+        <v>240361761492025</v>
       </c>
       <c r="R15" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S15">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="T15" t="str">
-        <v/>
-      </c>
-      <c r="U15" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U15">
+        <v>123014</v>
       </c>
       <c r="V15" t="str">
         <v/>
+      </c>
+      <c r="W15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1469,25 +1514,28 @@
         <v/>
       </c>
       <c r="P16" t="str">
-        <v>2403617614921016</v>
+        <v>2403617614921002</v>
       </c>
       <c r="Q16" t="str">
-        <v>240361761492016</v>
+        <v>240361761492002</v>
       </c>
       <c r="R16" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S16">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T16" t="str">
-        <v/>
-      </c>
-      <c r="U16" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U16">
+        <v>123015</v>
       </c>
       <c r="V16" t="str">
         <v/>
+      </c>
+      <c r="W16">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1537,25 +1585,28 @@
         <v/>
       </c>
       <c r="P17" t="str">
-        <v>2403617614921017</v>
+        <v>2403617614921003</v>
       </c>
       <c r="Q17" t="str">
-        <v>240361761492017</v>
+        <v>240361761492003</v>
       </c>
       <c r="R17" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="T17" t="str">
-        <v/>
-      </c>
-      <c r="U17" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U17">
+        <v>123016</v>
       </c>
       <c r="V17" t="str">
         <v/>
+      </c>
+      <c r="W17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1605,25 +1656,28 @@
         <v/>
       </c>
       <c r="P18" t="str">
-        <v>2403617614921018</v>
+        <v>2403617614921004</v>
       </c>
       <c r="Q18" t="str">
-        <v>240361761492018</v>
+        <v>240361761492004</v>
       </c>
       <c r="R18" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T18" t="str">
-        <v/>
-      </c>
-      <c r="U18" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U18">
+        <v>123017</v>
       </c>
       <c r="V18" t="str">
         <v/>
+      </c>
+      <c r="W18">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1673,25 +1727,28 @@
         <v/>
       </c>
       <c r="P19" t="str">
-        <v>2403617614921019</v>
+        <v>2403617614921005</v>
       </c>
       <c r="Q19" t="str">
-        <v>240361761492019</v>
+        <v>240361761492005</v>
       </c>
       <c r="R19" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S19">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T19" t="str">
-        <v/>
-      </c>
-      <c r="U19" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U19">
+        <v>123018</v>
       </c>
       <c r="V19" t="str">
         <v/>
+      </c>
+      <c r="W19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1741,25 +1798,28 @@
         <v/>
       </c>
       <c r="P20" t="str">
-        <v>2403617614921020</v>
+        <v>2403617614921006</v>
       </c>
       <c r="Q20" t="str">
-        <v>240361761492020</v>
+        <v>240361761492006</v>
       </c>
       <c r="R20" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T20" t="str">
-        <v/>
-      </c>
-      <c r="U20" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U20">
+        <v>123019</v>
       </c>
       <c r="V20" t="str">
         <v/>
+      </c>
+      <c r="W20">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1809,25 +1869,28 @@
         <v/>
       </c>
       <c r="P21" t="str">
-        <v>2403617614921021</v>
+        <v>2403617614921012</v>
       </c>
       <c r="Q21" t="str">
-        <v>240361761492021</v>
+        <v>240361761492012</v>
       </c>
       <c r="R21" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S21">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="T21" t="str">
-        <v/>
-      </c>
-      <c r="U21" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U21">
+        <v>123020</v>
       </c>
       <c r="V21" t="str">
         <v/>
+      </c>
+      <c r="W21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1877,25 +1940,28 @@
         <v/>
       </c>
       <c r="P22" t="str">
-        <v>2403617614921022</v>
+        <v>2403617614921013</v>
       </c>
       <c r="Q22" t="str">
-        <v>240361761492022</v>
+        <v>240361761492013</v>
       </c>
       <c r="R22" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S22">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="T22" t="str">
-        <v/>
-      </c>
-      <c r="U22" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U22">
+        <v>123021</v>
       </c>
       <c r="V22" t="str">
         <v/>
+      </c>
+      <c r="W22">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1945,25 +2011,28 @@
         <v/>
       </c>
       <c r="P23" t="str">
-        <v>2403617614921023</v>
+        <v>2403617614921014</v>
       </c>
       <c r="Q23" t="str">
-        <v>240361761492023</v>
+        <v>240361761492014</v>
       </c>
       <c r="R23" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S23">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="T23" t="str">
-        <v/>
-      </c>
-      <c r="U23" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U23">
+        <v>123022</v>
       </c>
       <c r="V23" t="str">
         <v/>
+      </c>
+      <c r="W23">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2013,25 +2082,28 @@
         <v/>
       </c>
       <c r="P24" t="str">
-        <v>2403617614921024</v>
+        <v>2403617614921015</v>
       </c>
       <c r="Q24" t="str">
-        <v>240361761492024</v>
+        <v>240361761492015</v>
       </c>
       <c r="R24" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S24">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="T24" t="str">
-        <v/>
-      </c>
-      <c r="U24" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U24">
+        <v>123023</v>
       </c>
       <c r="V24" t="str">
         <v/>
+      </c>
+      <c r="W24">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2081,34 +2153,33 @@
         <v/>
       </c>
       <c r="P25" t="str">
-        <v>2403617614921025</v>
+        <v>2403617614921016</v>
       </c>
       <c r="Q25" t="str">
-        <v>240361761492025</v>
+        <v>240361761492016</v>
       </c>
       <c r="R25" t="str">
         <v>322CIT05</v>
       </c>
       <c r="S25">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="T25" t="str">
-        <v/>
-      </c>
-      <c r="U25" t="str">
-        <v/>
+        <v>Present</v>
+      </c>
+      <c r="U25">
+        <v>123024</v>
       </c>
       <c r="V25" t="str">
         <v/>
       </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-  </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:V25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W25"/>
   </ignoredErrors>
 </worksheet>
 </file>